--- a/fechamento_2021/fechamento_julho/PositivosJulho.xlsx
+++ b/fechamento_2021/fechamento_julho/PositivosJulho.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d788796\Documents\Uipath\rpa_esus_edge\fechamento_2021\fechamento_julho\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Documents\UiPath\rpa_esus_edge\fechamento_2021\fechamento_julho\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901A0042-B490-492B-9DA4-68213B1D836D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5914B052-2A44-47D0-878B-FBA56512FC32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{836A1301-99E4-489A-A1BD-09234D9AF661}"/>
+    <workbookView xWindow="3045" yWindow="3540" windowWidth="16200" windowHeight="9360" xr2:uid="{836A1301-99E4-489A-A1BD-09234D9AF661}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1066,7 +1066,7 @@
   <dimension ref="A1:BI79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79:XFD79"/>
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
